--- a/experimental-setup/11.03 growth-curve protocol.xlsx
+++ b/experimental-setup/11.03 growth-curve protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB702A44-FE24-4852-AE23-61DCA87C6FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9C4F7-E173-4BFC-9D42-6C7A1422A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>11.03 96-well arrangement, for the fluorescence/growth curves.</t>
+  </si>
+  <si>
+    <t>PAO1</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>LESB58</t>
+  </si>
+  <si>
+    <t>LAC USA300</t>
   </si>
 </sst>
 </file>
@@ -102,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,6 +215,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +555,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,11 +675,27 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
+      <c r="H8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -672,6 +709,14 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -685,6 +730,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experimental-setup/11.03 growth-curve protocol.xlsx
+++ b/experimental-setup/11.03 growth-curve protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9C4F7-E173-4BFC-9D42-6C7A1422A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D854C-9303-40D9-8539-68CC4BF079D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>A</t>
   </si>
@@ -99,6 +99,54 @@
   </si>
   <si>
     <t>LAC USA300</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>LB #308</t>
+  </si>
+  <si>
+    <t>LB + Gm50 #308</t>
+  </si>
+  <si>
+    <t>TCM #308</t>
+  </si>
+  <si>
+    <t>TCM + Gm50 #308</t>
+  </si>
+  <si>
+    <t>LB + Gm50 #309</t>
+  </si>
+  <si>
+    <t>LB #309</t>
+  </si>
+  <si>
+    <t>TCM #309</t>
+  </si>
+  <si>
+    <t>TCM + Gm50 #309</t>
+  </si>
+  <si>
+    <t>LB #311</t>
+  </si>
+  <si>
+    <t>LB + Gm50 #311</t>
+  </si>
+  <si>
+    <t>TCM #311</t>
+  </si>
+  <si>
+    <t>TCM + Gm50 #311</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>17.03 First screen with PAO1</t>
   </si>
 </sst>
 </file>
@@ -114,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +199,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -197,11 +257,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -218,6 +358,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,20 +717,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8FC58-50B5-42B1-B80F-083BEDBB2893}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -602,8 +775,44 @@
       <c r="M3">
         <v>12</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>9</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>11</v>
+      </c>
+      <c r="AA3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -623,8 +832,27 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -636,8 +864,27 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="31"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -657,13 +904,51 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="31"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -683,8 +968,25 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -696,8 +998,25 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -717,8 +1036,27 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="37"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -738,8 +1076,28 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experimental-setup/11.03 growth-curve protocol.xlsx
+++ b/experimental-setup/11.03 growth-curve protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D854C-9303-40D9-8539-68CC4BF079D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB9094-E840-411E-86F3-08D74B285647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
+    <workbookView xWindow="5985" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>A</t>
   </si>
@@ -147,6 +147,51 @@
   </si>
   <si>
     <t>17.03 First screen with PAO1</t>
+  </si>
+  <si>
+    <t>23.03 GFP (or eGFP) only!</t>
+  </si>
+  <si>
+    <t>445 LESB</t>
+  </si>
+  <si>
+    <t>446 LESB</t>
+  </si>
+  <si>
+    <t>317 PAO1</t>
+  </si>
+  <si>
+    <t>318 PAO1</t>
+  </si>
+  <si>
+    <t>366 PAO1</t>
+  </si>
+  <si>
+    <t>367 PAO1</t>
+  </si>
+  <si>
+    <t>308 PAO1</t>
+  </si>
+  <si>
+    <t>309 PAO1</t>
+  </si>
+  <si>
+    <t>323 PA14</t>
+  </si>
+  <si>
+    <t>324 PA14</t>
+  </si>
+  <si>
+    <t>3 PAO1</t>
+  </si>
+  <si>
+    <t>4 LESB</t>
+  </si>
+  <si>
+    <t>6 PA14</t>
+  </si>
+  <si>
+    <t>23.03 Actual setup: LESB grew too slowly</t>
   </si>
 </sst>
 </file>
@@ -162,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +256,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -341,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,8 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -368,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -377,12 +433,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8FC58-50B5-42B1-B80F-083BEDBB2893}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,22 +908,22 @@
       <c r="O4" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="27" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="29"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -867,22 +940,22 @@
       <c r="O5" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="30" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="31"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -907,22 +980,22 @@
       <c r="O6" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="30" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="31"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="30"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -931,22 +1004,22 @@
       <c r="O7" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="32" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -971,20 +1044,14 @@
       <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1001,20 +1068,14 @@
       <c r="O9" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1039,22 +1100,22 @@
       <c r="O10" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="35" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="37"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="36"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1079,22 +1140,390 @@
       <c r="O11" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="38" t="s">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="39"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="55"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="55"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="O18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="O19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="O20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="O21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experimental-setup/11.03 growth-curve protocol.xlsx
+++ b/experimental-setup/11.03 growth-curve protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB9094-E840-411E-86F3-08D74B285647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F4D54E-0DFF-432A-B157-731A0848D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>A</t>
   </si>
@@ -192,6 +192,57 @@
   </si>
   <si>
     <t>23.03 Actual setup: LESB grew too slowly</t>
+  </si>
+  <si>
+    <t>29.03 YFP/Far-red</t>
+  </si>
+  <si>
+    <t>30.03 LESB58 (YFP &amp; GFP)</t>
+  </si>
+  <si>
+    <t>442 LESB</t>
+  </si>
+  <si>
+    <t>443 LESB</t>
+  </si>
+  <si>
+    <t>369 PAO1</t>
+  </si>
+  <si>
+    <t>370 PAO1</t>
+  </si>
+  <si>
+    <t>311 PAO1</t>
+  </si>
+  <si>
+    <t>312 PAO1</t>
+  </si>
+  <si>
+    <t>313 PAO1</t>
+  </si>
+  <si>
+    <t>320 PA14</t>
+  </si>
+  <si>
+    <t>321 PA14</t>
+  </si>
+  <si>
+    <t>75 USA300</t>
+  </si>
+  <si>
+    <t>76 USA300</t>
+  </si>
+  <si>
+    <t>1 USA300</t>
+  </si>
+  <si>
+    <t>29.03 proper</t>
+  </si>
+  <si>
+    <t>30.03 proper</t>
+  </si>
+  <si>
+    <t>TSB</t>
   </si>
 </sst>
 </file>
@@ -398,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -452,10 +503,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8FC58-50B5-42B1-B80F-083BEDBB2893}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="73" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,14 +1329,14 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="19"/>
-      <c r="V14" s="54" t="s">
+      <c r="V14" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="55"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1305,19 +1364,19 @@
       <c r="P15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="21"/>
-      <c r="V15" s="54" t="s">
+      <c r="V15" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="55"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="54"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1337,17 +1396,11 @@
       <c r="P16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="21"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1380,12 +1433,6 @@
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1418,12 +1465,6 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1456,12 +1497,6 @@
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1486,12 +1521,6 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1516,14 +1545,620 @@
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="54" t="s">
+      <c r="V21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="55"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="X23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>11</v>
+      </c>
+      <c r="AA23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="30"/>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="24"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+      <c r="O28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="O29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="O31" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="54"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>7</v>
+      </c>
+      <c r="W33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
+      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="61"/>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="33"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="O36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="O37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="54"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="O38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="O39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="63"/>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
+      <c r="O41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experimental-setup/11.03 growth-curve protocol.xlsx
+++ b/experimental-setup/11.03 growth-curve protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F4D54E-0DFF-432A-B157-731A0848D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492E4A0C-C85C-4863-95C9-0D9169E3521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{E388B108-E347-41DE-9585-A2159611B410}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>A</t>
   </si>
@@ -243,6 +243,45 @@
   </si>
   <si>
     <t>TSB</t>
+  </si>
+  <si>
+    <t>10.04 proper</t>
+  </si>
+  <si>
+    <t>4 #1</t>
+  </si>
+  <si>
+    <t>442 #1</t>
+  </si>
+  <si>
+    <t>443 #1</t>
+  </si>
+  <si>
+    <t>446 #1</t>
+  </si>
+  <si>
+    <t>4 #2</t>
+  </si>
+  <si>
+    <t>442 #2</t>
+  </si>
+  <si>
+    <t>443 #2</t>
+  </si>
+  <si>
+    <t>446 #2</t>
+  </si>
+  <si>
+    <t>4 #3</t>
+  </si>
+  <si>
+    <t>442 #3</t>
+  </si>
+  <si>
+    <t>443 #3</t>
+  </si>
+  <si>
+    <t>446 #3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -505,7 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,8 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8FC58-50B5-42B1-B80F-083BEDBB2893}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="73" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="73" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,14 +1684,14 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
       <c r="O24" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1703,7 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="28"/>
-      <c r="V24" s="62" t="s">
+      <c r="V24" s="61" t="s">
         <v>49</v>
       </c>
       <c r="W24" s="53"/>
@@ -1683,19 +1719,19 @@
       <c r="B25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
       <c r="O25" t="s">
         <v>1</v>
       </c>
@@ -1715,10 +1751,10 @@
       <c r="B26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="30"/>
       <c r="O26" t="s">
         <v>2</v>
@@ -1739,12 +1775,12 @@
       <c r="B27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="62" t="s">
+      <c r="H27" s="61" t="s">
         <v>48</v>
       </c>
       <c r="I27" s="53"/>
@@ -1776,7 +1812,7 @@
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="61" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="53"/>
@@ -1800,7 +1836,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="61" t="s">
         <v>65</v>
       </c>
       <c r="I29" s="53"/>
@@ -1832,7 +1868,7 @@
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="61" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="53"/>
@@ -1843,7 +1879,7 @@
       <c r="O31" t="s">
         <v>7</v>
       </c>
-      <c r="V31" s="62" t="s">
+      <c r="V31" s="61" t="s">
         <v>34</v>
       </c>
       <c r="W31" s="53"/>
@@ -1853,7 +1889,7 @@
       <c r="AA31" s="54"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="P32" t="s">
@@ -1946,14 +1982,14 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
       <c r="O34" t="s">
         <v>0</v>
       </c>
@@ -1986,24 +2022,24 @@
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="61"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="60"/>
       <c r="O35" t="s">
         <v>1</v>
       </c>
       <c r="P35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
       <c r="U35" s="30"/>
       <c r="V35" s="31" t="s">
         <v>55</v>
@@ -2026,7 +2062,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="61" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="53"/>
@@ -2069,7 +2105,7 @@
       <c r="O37" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="62" t="s">
+      <c r="P37" s="61" t="s">
         <v>48</v>
       </c>
       <c r="Q37" s="53"/>
@@ -2077,7 +2113,7 @@
       <c r="S37" s="53"/>
       <c r="T37" s="53"/>
       <c r="U37" s="54"/>
-      <c r="V37" s="62" t="s">
+      <c r="V37" s="61" t="s">
         <v>49</v>
       </c>
       <c r="W37" s="53"/>
@@ -2090,7 +2126,7 @@
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="53"/>
@@ -2106,7 +2142,7 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="53"/>
@@ -2122,7 +2158,7 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="61" t="s">
         <v>34</v>
       </c>
       <c r="I40" s="53"/>
@@ -2130,7 +2166,6 @@
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
       <c r="M40" s="54"/>
-      <c r="N40" s="63"/>
       <c r="O40" t="s">
         <v>6</v>
       </c>
@@ -2139,8 +2174,7 @@
       <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="62" t="s">
+      <c r="H41" s="61" t="s">
         <v>68</v>
       </c>
       <c r="I41" s="53"/>
@@ -2151,7 +2185,7 @@
       <c r="O41" t="s">
         <v>7</v>
       </c>
-      <c r="V41" s="62" t="s">
+      <c r="V41" s="61" t="s">
         <v>34</v>
       </c>
       <c r="W41" s="53"/>
@@ -2160,6 +2194,193 @@
       <c r="Z41" s="53"/>
       <c r="AA41" s="54"/>
     </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="28"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
